--- a/2HOG_TODO.xlsx
+++ b/2HOG_TODO.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B2" t="n">
         <v>0.2</v>
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -488,15 +488,15 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B4" t="n">
         <v>0.2</v>
@@ -508,12 +508,12 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B5" t="n">
         <v>0.2</v>
@@ -525,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6242424242424243</v>
+        <v>0.6444444444444445</v>
       </c>
     </row>
     <row r="6">
@@ -539,15 +539,15 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B7" t="n">
         <v>0.2</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.4277777777777778</v>
       </c>
     </row>
     <row r="8">
@@ -576,12 +576,12 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6242424242424243</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B9" t="n">
         <v>0.2</v>
@@ -590,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -607,15 +607,15 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5575757575757576</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B11" t="n">
         <v>0.2</v>
@@ -627,12 +627,12 @@
         <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6424242424242425</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B12" t="n">
         <v>0.2</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="13">
@@ -658,15 +658,15 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B14" t="n">
         <v>0.2</v>
@@ -678,12 +678,12 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B15" t="n">
         <v>0.2</v>
@@ -692,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -709,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -726,15 +726,15 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.6722222222222223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B18" t="n">
         <v>0.2</v>
@@ -743,15 +743,15 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5515151515151515</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B19" t="n">
         <v>0.2</v>
@@ -760,15 +760,15 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B20" t="n">
         <v>0.2</v>
@@ -777,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="21">
@@ -797,12 +797,12 @@
         <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B22" t="n">
         <v>0.2</v>
@@ -811,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.6444444444444445</v>
       </c>
     </row>
     <row r="23">
@@ -828,15 +828,15 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B24" t="n">
         <v>0.2</v>
@@ -848,12 +848,12 @@
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.6277777777777778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B25" t="n">
         <v>0.2</v>
@@ -862,15 +862,15 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B26" t="n">
         <v>0.2</v>
@@ -879,15 +879,15 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B27" t="n">
         <v>0.2</v>
@@ -899,12 +899,12 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B28" t="n">
         <v>0.2</v>
@@ -913,15 +913,15 @@
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B29" t="n">
         <v>0.2</v>
@@ -930,15 +930,15 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B30" t="n">
         <v>0.2</v>
@@ -947,10 +947,10 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="31">
@@ -967,12 +967,12 @@
         <v>11</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B32" t="n">
         <v>0.2</v>
@@ -984,12 +984,12 @@
         <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6222222222222222</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B33" t="n">
         <v>0.2</v>
@@ -998,15 +998,15 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.7277777777777777</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B34" t="n">
         <v>0.2</v>
@@ -1015,10 +1015,10 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.6277777777777778</v>
       </c>
     </row>
     <row r="35">
@@ -1035,12 +1035,12 @@
         <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B36" t="n">
         <v>0.2</v>
@@ -1049,10 +1049,10 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>0.696969696969697</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5212121212121212</v>
+        <v>0.4944444444444445</v>
       </c>
     </row>
     <row r="38">
@@ -1083,10 +1083,10 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="39">
@@ -1100,15 +1100,15 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B40" t="n">
         <v>0.2</v>
@@ -1117,15 +1117,15 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B41" t="n">
         <v>0.2</v>
@@ -1134,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.509090909090909</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
@@ -1154,12 +1154,12 @@
         <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B43" t="n">
         <v>0.2</v>
@@ -1171,29 +1171,29 @@
         <v>14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.5888888888888889</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6277777777777778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B45" t="n">
         <v>0.2</v>
@@ -1202,15 +1202,15 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B46" t="n">
         <v>0.2</v>
@@ -1219,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>0.696969696969697</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>0.4</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5515151515151515</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>0.593939393939394</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4121212121212121</v>
+        <v>0.6055555555555555</v>
       </c>
     </row>
     <row r="50">
@@ -1287,49 +1287,49 @@
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6303030303030303</v>
+        <v>0.6277777777777778</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5575757575757576</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7151515151515152</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B53" t="n">
         <v>0.4</v>
@@ -1338,27 +1338,27 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5388888888888889</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="55">
@@ -1372,10 +1372,10 @@
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6242424242424243</v>
+        <v>0.6277777777777778</v>
       </c>
     </row>
     <row r="56">
@@ -1389,15 +1389,15 @@
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B57" t="n">
         <v>0.4</v>
@@ -1406,32 +1406,32 @@
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6606060606060606</v>
+        <v>0.7055555555555556</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B59" t="n">
         <v>0.4</v>
@@ -1440,15 +1440,15 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B60" t="n">
         <v>0.4</v>
@@ -1457,27 +1457,27 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>0.496969696969697</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -1491,15 +1491,15 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5515151515151515</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B63" t="n">
         <v>0.4</v>
@@ -1508,10 +1508,10 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="64">
@@ -1525,15 +1525,15 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B65" t="n">
         <v>0.4</v>
@@ -1542,15 +1542,15 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B66" t="n">
         <v>0.4</v>
@@ -1559,15 +1559,15 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>0.593939393939394</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B67" t="n">
         <v>0.4</v>
@@ -1576,15 +1576,15 @@
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B68" t="n">
         <v>0.4</v>
@@ -1593,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.5944444444444444</v>
       </c>
     </row>
     <row r="69">
@@ -1610,15 +1610,15 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>0.509090909090909</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B70" t="n">
         <v>0.4</v>
@@ -1627,15 +1627,15 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>0.509090909090909</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B71" t="n">
         <v>0.4</v>
@@ -1647,12 +1647,12 @@
         <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.4944444444444445</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B72" t="n">
         <v>0.4</v>
@@ -1661,15 +1661,15 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B73" t="n">
         <v>0.4</v>
@@ -1678,15 +1678,15 @@
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B74" t="n">
         <v>0.4</v>
@@ -1695,15 +1695,15 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7055555555555556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B75" t="n">
         <v>0.4</v>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="76">
@@ -1729,10 +1729,10 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6242424242424243</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="77">
@@ -1746,15 +1746,15 @@
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6242424242424243</v>
+        <v>0.6277777777777778</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B78" t="n">
         <v>0.4</v>
@@ -1763,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.5722222222222222</v>
       </c>
     </row>
     <row r="79">
@@ -1780,15 +1780,15 @@
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7111111111111111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B80" t="n">
         <v>0.4</v>
@@ -1797,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6484848484848484</v>
+        <v>0.4388888888888889</v>
       </c>
     </row>
     <row r="81">
@@ -1814,15 +1814,15 @@
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4484848484848485</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B82" t="n">
         <v>0.4</v>
@@ -1831,15 +1831,15 @@
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B83" t="n">
         <v>0.4</v>
@@ -1848,15 +1848,15 @@
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B84" t="n">
         <v>0.4</v>
@@ -1865,15 +1865,15 @@
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5222222222222223</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B85" t="n">
         <v>0.4</v>
@@ -1885,29 +1885,29 @@
         <v>13</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.6055555555555555</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6606060606060606</v>
+        <v>0.5777777777777777</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B87" t="n">
         <v>0.4</v>
@@ -1916,15 +1916,15 @@
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B88" t="n">
         <v>0.4</v>
@@ -1933,44 +1933,44 @@
         <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C89" t="n">
         <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.5944444444444444</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C90" t="n">
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="91">
@@ -1984,10 +1984,10 @@
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="92">
@@ -1995,21 +1995,21 @@
         <v>0.8</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C92" t="n">
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B93" t="n">
         <v>0.6000000000000001</v>
@@ -2018,32 +2018,32 @@
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C94" t="n">
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5515151515151515</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B95" t="n">
         <v>0.6000000000000001</v>
@@ -2052,15 +2052,15 @@
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6611111111111111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B96" t="n">
         <v>0.4</v>
@@ -2069,15 +2069,15 @@
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6848484848484848</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B97" t="n">
         <v>0.6000000000000001</v>
@@ -2086,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5212121212121212</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="98">
@@ -2103,15 +2103,15 @@
         <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B99" t="n">
         <v>0.6000000000000001</v>
@@ -2120,10 +2120,10 @@
         <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="100">
@@ -2137,15 +2137,15 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5515151515151515</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B101" t="n">
         <v>0.6000000000000001</v>
@@ -2154,49 +2154,49 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C102" t="n">
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5575757575757576</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.5777777777777777</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B104" t="n">
         <v>0.6000000000000001</v>
@@ -2205,15 +2205,15 @@
         <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>0.593939393939394</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B105" t="n">
         <v>0.6000000000000001</v>
@@ -2222,15 +2222,15 @@
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.4944444444444445</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B106" t="n">
         <v>0.6000000000000001</v>
@@ -2239,32 +2239,32 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C107" t="n">
         <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6303030303030303</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B108" t="n">
         <v>0.6000000000000001</v>
@@ -2273,10 +2273,10 @@
         <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110">
@@ -2307,15 +2307,15 @@
         <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5575757575757576</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B111" t="n">
         <v>0.6000000000000001</v>
@@ -2327,12 +2327,12 @@
         <v>10</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B112" t="n">
         <v>0.6000000000000001</v>
@@ -2344,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.5611111111111111</v>
       </c>
     </row>
     <row r="113">
@@ -2358,15 +2358,15 @@
         <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B114" t="n">
         <v>0.6000000000000001</v>
@@ -2375,10 +2375,10 @@
         <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="115">
@@ -2392,10 +2392,10 @@
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6848484848484848</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="116">
@@ -2409,15 +2409,15 @@
         <v>2</v>
       </c>
       <c r="D116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B117" t="n">
         <v>0.6000000000000001</v>
@@ -2426,27 +2426,27 @@
         <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5212121212121212</v>
+        <v>0.7055555555555556</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="119">
@@ -2460,10 +2460,10 @@
         <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="120">
@@ -2477,10 +2477,10 @@
         <v>2</v>
       </c>
       <c r="D120" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.4944444444444445</v>
       </c>
     </row>
     <row r="121">
@@ -2494,15 +2494,15 @@
         <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6722222222222223</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B122" t="n">
         <v>0.6000000000000001</v>
@@ -2511,15 +2511,15 @@
         <v>2</v>
       </c>
       <c r="D122" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E122" t="n">
-        <v>0.593939393939394</v>
+        <v>0.6055555555555555</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B123" t="n">
         <v>0.6000000000000001</v>
@@ -2528,10 +2528,10 @@
         <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="124">
@@ -2545,10 +2545,10 @@
         <v>2</v>
       </c>
       <c r="D124" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="125">
@@ -2562,32 +2562,32 @@
         <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6787878787878788</v>
+        <v>0.6611111111111111</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C126" t="n">
         <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.5611111111111111</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B127" t="n">
         <v>0.6000000000000001</v>
@@ -2596,32 +2596,32 @@
         <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>0.496969696969697</v>
+        <v>0.6611111111111111</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C128" t="n">
         <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6303030303030303</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B129" t="n">
         <v>0.6000000000000001</v>
@@ -2630,15 +2630,15 @@
         <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B130" t="n">
         <v>0.6000000000000001</v>
@@ -2647,10 +2647,10 @@
         <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6121212121212121</v>
+        <v>0.6444444444444445</v>
       </c>
     </row>
     <row r="131">
@@ -2658,38 +2658,38 @@
         <v>0.4</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C131" t="n">
         <v>2</v>
       </c>
       <c r="D131" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6</v>
+        <v>0.5611111111111111</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C132" t="n">
         <v>2</v>
       </c>
       <c r="D132" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6787878787878788</v>
+        <v>0.3722222222222222</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B133" t="n">
         <v>0.6000000000000001</v>
@@ -2698,10 +2698,10 @@
         <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6848484848484848</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="134">
@@ -2709,21 +2709,21 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C134" t="n">
         <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.5888888888888889</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B135" t="n">
         <v>0.8</v>
@@ -2732,15 +2732,15 @@
         <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E135" t="n">
-        <v>0.593939393939394</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B136" t="n">
         <v>0.8</v>
@@ -2749,27 +2749,27 @@
         <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C137" t="n">
         <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="138">
@@ -2777,33 +2777,33 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C138" t="n">
         <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.4944444444444445</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C139" t="n">
         <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="140">
@@ -2817,15 +2817,15 @@
         <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6242424242424243</v>
+        <v>0.6055555555555555</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B141" t="n">
         <v>0.8</v>
@@ -2834,15 +2834,15 @@
         <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6606060606060606</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B142" t="n">
         <v>0.8</v>
@@ -2851,32 +2851,32 @@
         <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C143" t="n">
         <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6121212121212121</v>
+        <v>0.5944444444444444</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B144" t="n">
         <v>0.8</v>
@@ -2885,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="145">
@@ -2902,15 +2902,15 @@
         <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.6777777777777778</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B146" t="n">
         <v>0.8</v>
@@ -2919,15 +2919,15 @@
         <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6424242424242425</v>
+        <v>0.5722222222222222</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B147" t="n">
         <v>0.8</v>
@@ -2936,27 +2936,27 @@
         <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E147" t="n">
-        <v>0.593939393939394</v>
+        <v>0.6055555555555555</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C148" t="n">
         <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4555555555555555</v>
       </c>
     </row>
     <row r="149">
@@ -2970,15 +2970,15 @@
         <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.6611111111111111</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B150" t="n">
         <v>0.8</v>
@@ -2987,10 +2987,10 @@
         <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="151">
@@ -3004,15 +3004,15 @@
         <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.5777777777777777</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B152" t="n">
         <v>0.8</v>
@@ -3021,49 +3021,49 @@
         <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B153" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C153" t="n">
         <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3454545454545455</v>
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C154" t="n">
         <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6787878787878788</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="B155" t="n">
         <v>0.8</v>
@@ -3072,10 +3072,10 @@
         <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="156">
@@ -3089,15 +3089,15 @@
         <v>2</v>
       </c>
       <c r="D156" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B157" t="n">
         <v>0.8</v>
@@ -3106,10 +3106,10 @@
         <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.5777777777777777</v>
       </c>
     </row>
     <row r="158">
@@ -3123,10 +3123,10 @@
         <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="159">
@@ -3140,44 +3140,44 @@
         <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="B160" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C160" t="n">
         <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E160" t="n">
-        <v>0.593939393939394</v>
+        <v>0.6611111111111111</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B161" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E161" t="n">
-        <v>0.703030303030303</v>
+        <v>0.5388888888888889</v>
       </c>
     </row>
     <row r="162">
@@ -3191,61 +3191,61 @@
         <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B163" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C163" t="n">
         <v>2</v>
       </c>
       <c r="D163" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.6833333333333333</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C164" t="n">
         <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C165" t="n">
         <v>2</v>
       </c>
       <c r="D165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E165" t="n">
-        <v>0.4909090909090909</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="166">
@@ -3259,10 +3259,10 @@
         <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="167">
@@ -3276,10 +3276,10 @@
         <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="168">
@@ -3293,27 +3293,27 @@
         <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.5444444444444444</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C169" t="n">
         <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E169" t="n">
-        <v>0.696969696969697</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="170">
@@ -3327,10 +3327,10 @@
         <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5818181818181818</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="171">
@@ -3344,10 +3344,10 @@
         <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="172">
@@ -3361,15 +3361,15 @@
         <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E172" t="n">
-        <v>0.6848484848484848</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="B173" t="n">
         <v>0.8</v>
@@ -3381,12 +3381,12 @@
         <v>14</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="B174" t="n">
         <v>0.8</v>
@@ -3395,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="D174" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="175">
@@ -3412,10 +3412,10 @@
         <v>2</v>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E175" t="n">
-        <v>0.7393939393939394</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="176">
@@ -3429,15 +3429,15 @@
         <v>2</v>
       </c>
       <c r="D176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E176" t="n">
-        <v>0.3393939393939394</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B177" t="n">
         <v>0.8</v>
@@ -3446,15 +3446,15 @@
         <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6</v>
+        <v>0.6722222222222223</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="B178" t="n">
         <v>0.8</v>
@@ -3463,27 +3463,27 @@
         <v>2</v>
       </c>
       <c r="D178" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5696969696969697</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B179" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C179" t="n">
         <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6848484848484848</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="180">
@@ -3491,33 +3491,33 @@
         <v>0.2</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C180" t="n">
         <v>2</v>
       </c>
       <c r="D180" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E180" t="n">
-        <v>0.6848484848484848</v>
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B181" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C181" t="n">
         <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E181" t="n">
-        <v>0.7212121212121212</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="182">
@@ -3531,15 +3531,15 @@
         <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6484848484848484</v>
+        <v>0.6444444444444445</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B183" t="n">
         <v>0.8</v>
@@ -3548,10 +3548,10 @@
         <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E183" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="184">
@@ -3565,15 +3565,15 @@
         <v>2</v>
       </c>
       <c r="D184" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7212121212121212</v>
+        <v>0.7277777777777777</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B185" t="n">
         <v>0.8</v>
@@ -3582,15 +3582,15 @@
         <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E185" t="n">
-        <v>0.696969696969697</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B186" t="n">
         <v>0.8</v>
@@ -3599,10 +3599,10 @@
         <v>2</v>
       </c>
       <c r="D186" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E186" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>9</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>10</v>
       </c>
       <c r="E188" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7055555555555556</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="E189" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6722222222222223</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>12</v>
       </c>
       <c r="E190" t="n">
-        <v>0.7212121212121212</v>
+        <v>0.7555555555555555</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>13</v>
       </c>
       <c r="E191" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7055555555555556</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>14</v>
       </c>
       <c r="E192" t="n">
-        <v>0.6484848484848484</v>
+        <v>0.6777777777777778</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>15</v>
       </c>
       <c r="E193" t="n">
-        <v>0.7151515151515152</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
